--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -726,23 +734,29 @@
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,11 +781,17 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,11 +816,17 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,25 +838,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,11 +971,17 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,22 +990,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
@@ -962,13 +1016,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,23 +1041,29 @@
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1023,23 +1091,29 @@
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1052,23 +1126,29 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1094,10 +1174,16 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1105,16 +1191,16 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1123,10 +1209,16 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1192,16 +1296,16 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1210,10 +1314,16 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1221,16 +1331,16 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1239,10 +1349,16 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1284,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
         <v>-3900</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1371,23 +1511,29 @@
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,28 +1541,34 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1453,62 +1611,74 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1660,14 +1858,14 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1678,25 +1876,31 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -1707,8 +1911,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1747,11 +1963,11 @@
       <c r="E48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -1762,11 +1978,17 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,71 +2225,85 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2038,51 +2312,63 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2121,11 +2413,11 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2601,28 +2991,34 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3236,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2820,10 +3254,10 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -2835,10 +3269,16 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,26 +3581,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3124,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3651,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3162,17 +3666,17 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3180,6 +3684,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,11 +743,11 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -752,11 +755,14 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,11 +793,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,11 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,28 +852,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,19 +926,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -930,11 +949,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -942,11 +961,14 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,11 +999,14 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,16 +1017,17 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1010,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1022,13 +1048,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,11 +1076,11 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1059,11 +1088,14 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1097,11 +1130,11 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1109,11 +1142,14 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,11 +1168,11 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1144,31 +1180,34 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1180,30 +1219,33 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1215,10 +1257,13 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,28 +1335,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1320,30 +1371,33 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1355,10 +1409,13 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,23 +1472,26 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
         <v>-3900</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1517,11 +1586,11 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1529,34 +1598,37 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1565,10 +1637,13 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,31 +1677,34 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1635,50 +1713,56 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1792,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1719,16 +1805,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1739,11 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1864,11 +1962,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1882,19 +1980,22 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -1903,7 +2004,7 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2056,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1969,8 +2076,8 @@
       <c r="G48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -1984,11 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2284,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2239,31 +2369,34 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>600</v>
       </c>
       <c r="M57" s="3">
+        <v>600</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2274,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2283,22 +2416,25 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2306,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2318,22 +2454,25 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2344,7 +2483,7 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -2353,22 +2492,25 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2419,8 +2564,8 @@
       <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,31 +2711,34 @@
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
       </c>
       <c r="I76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,71 +3130,77 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3015,10 +3209,13 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,17 +3256,20 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3260,7 +3476,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3275,10 +3491,13 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3596,20 +3841,20 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -3622,8 +3867,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3666,20 +3917,20 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3690,6 +3941,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,11 +750,11 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -758,11 +762,14 @@
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,11 +803,14 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,11 +844,14 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,20 +878,20 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -938,11 +958,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,11 +972,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -964,11 +984,14 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1002,11 +1025,14 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,19 +1044,20 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1039,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1051,13 +1078,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1079,11 +1109,11 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
@@ -1091,11 +1121,14 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1133,11 +1167,11 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1145,11 +1179,14 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1171,11 +1208,11 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1183,11 +1220,14 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,22 +1235,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1222,33 +1262,36 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1260,10 +1303,13 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,31 +1387,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1374,33 +1426,36 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1412,10 +1467,13 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,23 +1536,26 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3900</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1589,11 +1659,11 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1601,37 +1671,40 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1640,10 +1713,13 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,34 +1756,37 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1716,53 +1795,59 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,13 +1879,14 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1808,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -1828,11 +1915,14 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,13 +2041,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1965,11 +2064,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1983,22 +2082,25 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2007,7 +2109,7 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,8 +2164,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2079,8 +2187,8 @@
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2094,11 +2202,14 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,32 +2410,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2372,36 +2503,39 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2410,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2419,22 +2553,25 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
       </c>
       <c r="N58" s="3">
+        <v>800</v>
+      </c>
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2445,7 +2582,7 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2457,27 +2594,30 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2486,7 +2626,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -2495,22 +2635,25 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2567,8 +2713,8 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2714,31 +2872,34 @@
         <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>500</v>
       </c>
       <c r="I66" s="3">
+        <v>500</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>-200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,77 +3322,83 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3212,10 +3407,13 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3259,17 +3458,20 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,13 +3672,16 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -3479,7 +3696,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3494,10 +3711,13 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,32 +4075,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,32 +4157,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -1272,8 +1272,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-1200</v>
@@ -1395,8 +1395,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-1200</v>
@@ -1436,8 +1436,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-1200</v>
@@ -1682,8 +1682,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-1200</v>
@@ -1764,8 +1764,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-1200</v>
@@ -3376,8 +3376,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-1200</v>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,125 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,11 +820,17 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,11 +867,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,37 +893,39 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,60 +1001,66 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1028,11 +1074,17 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,34 +1097,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1081,54 +1135,66 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1210,57 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1211,52 +1285,58 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1265,39 +1345,45 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1306,10 +1392,16 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,37 +1488,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-4400</v>
       </c>
       <c r="E26" s="3">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1429,39 +1533,45 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-3300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1200</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1470,10 +1580,16 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1539,23 +1661,29 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3900</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1770,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1200</v>
+        <v>-600</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1200</v>
+        <v>-600</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2142,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2189,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,20 +2236,26 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2067,14 +2265,14 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2085,37 +2283,43 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2126,8 +2330,14 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2190,11 +2406,11 @@
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2205,11 +2421,17 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,38 +2659,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2454,8 +2706,14 @@
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2748,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2506,31 +2768,37 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,40 +2806,46 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2585,10 +2859,10 @@
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2597,22 +2871,28 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,40 +2900,46 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>300</v>
+      </c>
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,16 +2979,22 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -2716,11 +3008,11 @@
       <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>200</v>
+      </c>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,16 +3167,22 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
@@ -2875,31 +3191,37 @@
         <v>300</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>300</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2600</v>
+        <v>-6500</v>
       </c>
       <c r="E72" s="3">
         <v>-2300</v>
       </c>
       <c r="F72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1200</v>
+        <v>-600</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,19 +4103,25 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -3699,10 +4133,10 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3714,10 +4148,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4357,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,38 +4564,44 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4119,8 +4611,14 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,38 +4658,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4703,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,17 +764,17 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -779,11 +782,14 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,11 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,11 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,40 +907,41 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,11 +1026,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1021,11 +1040,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,8 +1084,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1080,11 +1102,14 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,19 +1134,19 @@
         <v>4300</v>
       </c>
       <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1129,7 +1155,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1141,13 +1167,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,34 +1184,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>-100</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
@@ -1190,11 +1219,14 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1238,17 +1271,17 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1256,11 +1289,14 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1291,11 +1327,11 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
@@ -1303,19 +1339,22 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1324,22 +1363,22 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1351,42 +1390,45 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1398,10 +1440,13 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,40 +1542,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1539,42 +1590,45 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1586,10 +1640,13 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1667,23 +1727,26 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3900</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1802,17 +1871,17 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -1820,46 +1889,49 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1868,10 +1940,13 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,43 +1992,46 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -1962,62 +2040,68 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,23 +2139,24 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2078,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>200</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2098,11 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,11 +2352,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2271,11 +2369,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2289,31 +2387,34 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2322,7 +2423,7 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2412,8 +2519,8 @@
       <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>200</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2427,11 +2534,14 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,41 +2787,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,11 +2889,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2774,46 +2904,49 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
       </c>
       <c r="P57" s="3">
         <v>600</v>
       </c>
       <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2821,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2830,22 +2963,25 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2865,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
@@ -2877,36 +3013,39 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2915,7 +3054,7 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -2924,22 +3063,25 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -3014,8 +3159,8 @@
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3184,8 +3341,8 @@
       <c r="E66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="3">
-        <v>300</v>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G66" s="3">
         <v>300</v>
@@ -3197,31 +3354,34 @@
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>500</v>
       </c>
       <c r="L66" s="3">
+        <v>500</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
       </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,95 +3897,101 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -3806,10 +4000,13 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3865,17 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,22 +4322,25 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4139,7 +4355,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4154,10 +4370,13 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4812,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,41 +4912,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,17 +771,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -785,11 +789,14 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,11 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,11 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,43 +921,44 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>2900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,11 +1049,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1043,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1087,8 +1110,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1105,11 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,31 +1151,32 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4300</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
         <v>4300</v>
       </c>
       <c r="F17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1158,7 +1185,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1170,13 +1197,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,34 +1217,34 @@
         <v>-4300</v>
       </c>
       <c r="F18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3">
+        <v>-100</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
@@ -1222,11 +1252,14 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,17 +1308,17 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1292,11 +1326,14 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1330,11 +1367,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
@@ -1342,22 +1379,25 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1366,22 +1406,22 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1393,45 +1433,48 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1443,10 +1486,13 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,43 +1594,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1593,45 +1645,48 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1643,10 +1698,13 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1730,23 +1791,26 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3900</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1874,17 +1944,17 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -1892,49 +1962,52 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1943,10 +2016,13 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,46 +2071,49 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2043,65 +2122,71 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,26 +2226,27 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2167,16 +2254,16 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>200</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2187,11 +2274,14 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2355,11 +2454,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2372,11 +2471,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2390,34 +2489,37 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2426,7 +2528,7 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2522,8 +2630,8 @@
       <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>200</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2537,11 +2645,14 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +2913,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
       </c>
       <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,11 +3023,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2907,49 +3038,52 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -2957,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -2966,22 +3100,25 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3004,7 +3141,7 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3016,39 +3153,42 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -3057,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -3066,22 +3206,25 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
+        <v>300</v>
+      </c>
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>200</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3344,8 +3502,8 @@
       <c r="F66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="3">
-        <v>300</v>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
@@ -3357,31 +3515,34 @@
         <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>500</v>
       </c>
       <c r="M66" s="3">
+        <v>500</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
       </c>
       <c r="N76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,101 +4089,107 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4003,10 +4198,13 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,31 +4223,32 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,25 +4539,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4358,7 +4575,7 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4373,10 +4590,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4615,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,31 +4772,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,44 +5058,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,44 +5164,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,17 +778,17 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -792,11 +796,14 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,11 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,11 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,46 +935,47 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>2900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,11 +1072,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1066,11 +1086,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1078,11 +1098,14 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1131,11 +1154,14 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,34 +1178,35 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4300</v>
       </c>
       <c r="F17" s="3">
         <v>4300</v>
       </c>
       <c r="G17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1188,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1200,13 +1227,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,40 +1244,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-1100</v>
       </c>
       <c r="F18" s="3">
         <v>-4300</v>
       </c>
       <c r="G18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>-100</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
@@ -1255,11 +1285,14 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1311,17 +1345,17 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1329,19 +1363,22 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1370,11 +1407,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
@@ -1382,25 +1419,28 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1409,22 +1449,22 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1436,48 +1476,51 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1489,10 +1532,13 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,46 +1646,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1648,48 +1700,51 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1701,10 +1756,13 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1794,23 +1855,26 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3">
         <v>-3900</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1947,17 +2017,17 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -1965,52 +2035,55 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2019,10 +2092,13 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,49 +2150,52 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2125,68 +2204,74 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,29 +2313,30 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2257,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>200</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2277,34 +2364,37 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2457,11 +2556,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2474,11 +2573,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2492,37 +2591,40 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -2531,7 +2633,7 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2633,8 +2741,8 @@
       <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="N48" s="3">
+        <v>200</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2648,11 +2756,14 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3039,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
+        <v>400</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3141,14 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3026,11 +3157,11 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3041,52 +3172,55 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -3094,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>200</v>
@@ -3103,22 +3237,25 @@
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
       </c>
       <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3144,7 +3281,7 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3156,42 +3293,45 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3200,7 +3340,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3209,22 +3349,25 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
+        <v>300</v>
+      </c>
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3294,7 +3440,7 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>1400</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>4</v>
@@ -3505,8 +3663,8 @@
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H66" s="3">
-        <v>300</v>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
@@ -3518,31 +3676,34 @@
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>-100</v>
       </c>
       <c r="O76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,107 +4281,113 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4201,10 +4396,13 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -4250,8 +4449,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4268,17 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,28 +4756,31 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4578,7 +4795,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4593,10 +4810,13 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,16 +4836,17 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -4642,8 +4863,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4801,8 +5031,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,38 +5316,38 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,47 +5416,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,29 +788,35 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,11 +868,17 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,11 +930,17 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,52 +961,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>2900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,16 +1081,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1075,37 +1114,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,11 +1184,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
@@ -1157,11 +1202,17 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1230,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1230,13 +1283,19 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1348,29 +1415,35 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,14 +1451,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1410,67 +1483,73 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1479,54 +1558,60 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
@@ -1535,10 +1620,16 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,52 +1746,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
@@ -1703,54 +1806,60 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
@@ -1759,10 +1868,16 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,31 +1932,37 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1858,23 +1979,29 @@
       <c r="O29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2020,85 +2159,97 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,75 +2485,83 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2396,11 +2575,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2729,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2559,14 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2576,14 +2773,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,52 +2791,58 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2915,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,10 +2930,10 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2744,11 +2959,11 @@
       <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
@@ -2759,11 +2974,17 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3287,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,32 +3401,34 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3175,95 +3436,107 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
       <c r="P58" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3284,10 +3557,10 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3296,78 +3569,90 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3443,10 +3734,10 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3">
         <v>200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>200</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,31 +3955,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
@@ -3679,31 +3994,37 @@
         <v>300</v>
       </c>
       <c r="M66" s="3">
+        <v>300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>300</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-2600</v>
       </c>
       <c r="J72" s="3">
         <v>-2300</v>
       </c>
       <c r="K72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4434,11 +4831,11 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -4452,11 +4849,11 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4470,17 +4867,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,34 +5186,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -4798,10 +5231,10 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4813,10 +5246,16 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4848,11 +5289,11 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4866,11 +5307,11 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,22 +5458,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5034,11 +5493,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5319,41 +5810,41 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>1700</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,53 +5916,59 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -5295,14 +5295,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,17 +798,17 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
@@ -812,11 +816,14 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -874,11 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,11 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,44 +988,44 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1120,11 +1140,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1134,11 +1154,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1190,8 +1213,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1208,11 +1231,14 @@
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,44 +1258,45 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4300</v>
       </c>
       <c r="I17" s="3">
         <v>4300</v>
       </c>
       <c r="J17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1277,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1289,13 +1316,16 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,49 +1333,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-4300</v>
       </c>
       <c r="I18" s="3">
         <v>-4300</v>
       </c>
       <c r="J18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
+      <c r="P18" s="3">
+        <v>-100</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
@@ -1353,11 +1383,14 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,14 +1423,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1421,17 +1455,17 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
@@ -1439,11 +1473,14 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,17 +1488,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1489,11 +1526,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
@@ -1501,11 +1538,14 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,23 +1553,23 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
@@ -1537,22 +1577,22 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1564,57 +1604,60 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1626,10 +1669,13 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,55 +1801,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1812,57 +1864,60 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1874,10 +1929,13 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,8 +2025,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
@@ -1985,23 +2046,26 @@
       <c r="Q29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3">
         <v>-3900</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,13 +2203,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2165,17 +2235,17 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
@@ -2183,61 +2253,64 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2246,10 +2319,13 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,58 +2386,61 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2370,77 +2449,83 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,29 +2583,29 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2526,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>200</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2546,16 +2633,19 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>100</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -2563,8 +2653,8 @@
       <c r="F42" s="3">
         <v>100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="G42" s="3">
+        <v>100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
@@ -2581,8 +2671,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2762,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2779,11 +2878,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2797,46 +2896,49 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2845,7 +2947,7 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -2859,31 +2961,34 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2936,7 +3044,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2965,8 +3073,8 @@
       <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>200</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2980,11 +3088,14 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3302,47 +3428,47 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
+        <v>400</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,13 +3543,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3427,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3442,60 +3573,63 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>600</v>
       </c>
       <c r="U57" s="3">
         <v>600</v>
       </c>
       <c r="V57" s="3">
+        <v>600</v>
+      </c>
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3504,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>200</v>
@@ -3513,22 +3647,25 @@
         <v>200</v>
       </c>
       <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
         <v>1300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>800</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
       </c>
       <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3539,7 +3676,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3563,7 +3700,7 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3575,52 +3712,55 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="E60" s="3">
         <v>6200</v>
       </c>
       <c r="F60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
-        <v>100</v>
-      </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
@@ -3628,7 +3768,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3637,22 +3777,25 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
+        <v>300</v>
+      </c>
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3740,7 +3886,7 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,23 +4116,26 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E66" s="3">
         <v>3500</v>
       </c>
       <c r="F66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3987,8 +4145,8 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
-        <v>300</v>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -4000,31 +4158,34 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
       <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-21400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>-200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
       </c>
       <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,125 +4856,131 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4794,10 +4989,13 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4837,8 +5036,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -4855,8 +5054,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4873,17 +5072,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,37 +5406,40 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5237,7 +5454,7 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5252,10 +5469,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5304,8 +5525,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5313,8 +5534,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,25 +5691,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5499,8 +5729,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6041,16 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5816,38 +6062,38 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,56 +6171,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-600</v>
       </c>
       <c r="F102" s="3">
         <v>-600</v>
       </c>
       <c r="G102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XERI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>XERI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,108 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,29 +809,35 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,11 +898,17 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,11 +969,17 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,13 +1003,15 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -991,47 +1019,47 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,17 +1156,17 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1143,37 +1183,43 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1216,11 +1262,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1234,11 +1280,17 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,58 +1311,60 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
@@ -1319,13 +1373,19 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1435,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1458,29 +1526,35 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,23 +1562,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1529,23 +1603,29 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,49 +1636,49 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1607,63 +1687,69 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1200</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -1672,10 +1758,16 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,61 +1902,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -1867,63 +1971,69 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -1932,10 +2042,16 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,11 +2150,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
@@ -2049,23 +2171,29 @@
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
         <v>-3900</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2215,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2238,94 +2378,106 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,93 +2746,101 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3">
-        <v>100</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
@@ -2674,11 +2854,11 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3026,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2864,13 +3062,13 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2881,14 +3079,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2899,61 +3097,67 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
@@ -2964,37 +3168,43 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3029,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,10 +3263,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3076,11 +3292,11 @@
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>200</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3091,11 +3307,17 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,20 +3540,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3665,68 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
@@ -3484,8 +3736,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,40 +3794,42 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3576,101 +3838,113 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>6600</v>
       </c>
       <c r="E58" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="F58" s="3">
         <v>6000</v>
       </c>
       <c r="G58" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
       <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+      <c r="U58" s="3">
         <v>1300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
@@ -3679,10 +3953,10 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3703,10 +3977,10 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3715,87 +3989,99 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
+        <v>300</v>
+      </c>
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>4500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,16 +4145,22 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3889,10 +4181,10 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>200</v>
@@ -3906,11 +4198,11 @@
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>200</v>
+      </c>
+      <c r="S62" s="3">
+        <v>200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,40 +4429,46 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
-        <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -4161,31 +4477,37 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-21400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2600</v>
       </c>
       <c r="M72" s="3">
         <v>-2300</v>
       </c>
       <c r="N72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-10500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
       <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-4300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-4200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,11 +5437,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -5057,11 +5455,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5075,17 +5473,23 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,43 +5837,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -5457,10 +5891,10 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5472,10 +5906,16 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5528,20 +5970,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,31 +6148,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5732,11 +6192,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,20 +6530,26 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6065,41 +6557,41 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,53 +6687,53 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
